--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1212,38 +1212,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1260,7 +1228,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1268,17 +1236,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1289,15 +1272,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,15 +1297,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,21 +1350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,7 +1377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,19 +1413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,7 +1455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,19 +1479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,7 +1503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,31 +1527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,37 +1551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,26 +1610,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,16 +1665,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,21 +1684,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,7 +1710,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,130 +1728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2299,10 +2299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -3962,7 +3962,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>12</v>
@@ -4006,7 +4006,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="9"/>
@@ -4668,7 +4668,7 @@
       <c r="C105" s="8"/>
       <c r="D105" s="11"/>
       <c r="E105" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="7"/>
@@ -4737,7 +4737,7 @@
       <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="10">
+      <c r="A109" s="9">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -4761,732 +4761,748 @@
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="7">
+      <c r="A110" s="9">
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H110" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="8">
+        <v>5</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="9">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F112" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G112" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="10">
-        <v>111</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D113" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E113" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="F113" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G113" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>112</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="9">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10">
         <v>4</v>
       </c>
-      <c r="F114" s="10" t="s">
+      <c r="F115" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="10">
-        <v>114</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>115</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10">
-        <v>4</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="9">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10">
+        <v>4</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D118" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8" t="s">
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="10">
-        <v>117</v>
-      </c>
-      <c r="B118" s="10" t="s">
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10">
         <v>4</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="F119" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G119" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="7">
-        <v>118</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H119" s="8"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="9">
         <v>119</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10">
         <v>1</v>
       </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="10">
-        <v>120</v>
-      </c>
-      <c r="B121" s="8" t="s">
+      <c r="F121" s="10"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="9">
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D122" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7">
-        <v>121</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10">
-        <v>1</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="10"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="9">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10">
+        <v>1</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D124" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8" t="s">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="10">
-        <v>123</v>
-      </c>
-      <c r="B124" s="10" t="s">
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10">
         <v>3</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F125" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H125" s="8"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="9">
         <v>125</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10" t="s">
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="10">
-        <v>126</v>
-      </c>
-      <c r="B127" s="8" t="s">
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="9">
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="8">
+      <c r="C128" s="8"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="8">
         <v>2</v>
       </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H128" s="10"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="9">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="9">
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F130" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="B130" s="10" t="s">
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E131" s="10">
         <v>9889656446</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F131" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H131" s="8"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="9">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10">
-        <v>4</v>
-      </c>
-      <c r="F132" s="10" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10">
+        <v>5</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G133" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="10">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="9">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D134" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H134" s="10"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="9">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G136" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="B136" s="10" t="s">
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D137" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10" t="s">
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G137" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H137" s="8"/>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="9">
         <v>137</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="s">
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G139" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="B139" s="8" t="s">
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="9">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D140" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G140" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H140" s="10"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="9">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="9">
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="10">
-        <v>141</v>
-      </c>
-      <c r="B142" s="10" t="s">
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10">
         <v>5</v>
       </c>
-      <c r="F142" s="10"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="7">
-        <v>142</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H143" s="8"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="9">
         <v>143</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10">
         <v>4</v>
       </c>
-      <c r="F144" s="10"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -5502,10 +5518,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B115 B116 B124 B125 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B114 B117:B118 B119:B122 B127:B142 B143:B144 K4:K11 K14:K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 B144:B145 K4:K11 K14:K16">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C117 C29:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C118 C29:C35">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi-ok.xlsx
@@ -1167,9 +1167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1213,15 +1213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,16 +1227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,7 +1244,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,22 +1304,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,22 +1328,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,21 +1348,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1377,7 +1377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1419,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,13 +1473,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,91 +1509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,37 +1521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,6 +1534,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,17 +1610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1640,11 +1634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,17 +1664,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1690,27 +1686,31 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,40 +1728,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1770,88 +1770,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2301,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2452,7 +2452,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
